--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,34 +64,46 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.814+/-0.001</t>
   </si>
   <si>
-    <t>0.802+/-0.0</t>
+    <t>0.803+/-0.0</t>
   </si>
   <si>
     <t>0.799</t>
   </si>
   <si>
-    <t>0.967+/-0.008</t>
-  </si>
-  <si>
-    <t>0.73+/-0.145</t>
+    <t>0.965+/-0.007</t>
+  </si>
+  <si>
+    <t>0.758+/-0.151</t>
   </si>
   <si>
     <t>0.533</t>
   </si>
   <si>
-    <t>0.079+/-0.007</t>
-  </si>
-  <si>
-    <t>0.027+/-0.01</t>
+    <t>0.078+/-0.006</t>
+  </si>
+  <si>
+    <t>0.029+/-0.01</t>
   </si>
   <si>
     <t>0.021</t>
   </si>
   <si>
-    <t>5.597+/-0.388</t>
+    <t>3.901+/-0.12</t>
   </si>
   <si>
     <t>0.802+/-0.001</t>
@@ -121,7 +133,7 @@
     <t>0.013</t>
   </si>
   <si>
-    <t>0.952+/-0.02</t>
+    <t>0.785+/-0.101</t>
   </si>
   <si>
     <t>0.818+/-0.001</t>
@@ -130,55 +142,49 @@
     <t>0.798+/-0.0</t>
   </si>
   <si>
-    <t>0.796</t>
+    <t>0.795</t>
   </si>
   <si>
     <t>0.961+/-0.008</t>
   </si>
   <si>
-    <t>0.493+/-0.181</t>
-  </si>
-  <si>
-    <t>0.391</t>
+    <t>0.501+/-0.166</t>
+  </si>
+  <si>
+    <t>0.364</t>
   </si>
   <si>
     <t>0.103+/-0.007</t>
   </si>
   <si>
-    <t>0.033+/-0.012</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>3.173+/-0.085</t>
-  </si>
-  <si>
-    <t>0.8+/-0.001</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
+    <t>0.033+/-0.011</t>
+  </si>
+  <si>
+    <t>2.909+/-0.204</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.2+/-0.4</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.006+/-0.003</t>
-  </si>
-  <si>
-    <t>0.001+/-0.003</t>
-  </si>
-  <si>
-    <t>0.685+/-0.015</t>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.005+/-0.002</t>
+  </si>
+  <si>
+    <t>0.001+/-0.002</t>
+  </si>
+  <si>
+    <t>0.524+/-0.027</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t>0.858+/-0.001</t>
@@ -190,25 +196,25 @@
     <t>0.851</t>
   </si>
   <si>
-    <t>0.969+/-0.009</t>
-  </si>
-  <si>
-    <t>0.683+/-0.353</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.057+/-0.004</t>
-  </si>
-  <si>
-    <t>0.014+/-0.007</t>
+    <t>0.968+/-0.007</t>
+  </si>
+  <si>
+    <t>0.515+/-0.336</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.055+/-0.004</t>
+  </si>
+  <si>
+    <t>0.014+/-0.009</t>
   </si>
   <si>
     <t>0.007</t>
   </si>
   <si>
-    <t>5.062+/-0.218</t>
+    <t>4.168+/-0.051</t>
   </si>
   <si>
     <t>0.852+/-0.0</t>
@@ -235,7 +241,7 @@
     <t>0.008+/-0.006</t>
   </si>
   <si>
-    <t>0.963+/-0.02</t>
+    <t>0.742+/-0.02</t>
   </si>
   <si>
     <t>0.863+/-0.001</t>
@@ -250,7 +256,7 @@
     <t>0.987+/-0.007</t>
   </si>
   <si>
-    <t>0.376+/-0.163</t>
+    <t>0.404+/-0.161</t>
   </si>
   <si>
     <t>0.167</t>
@@ -259,199 +265,202 @@
     <t>0.088+/-0.004</t>
   </si>
   <si>
-    <t>0.019+/-0.006</t>
-  </si>
-  <si>
-    <t>3.16+/-0.035</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
+    <t>0.022+/-0.011</t>
+  </si>
+  <si>
+    <t>2.858+/-0.088</t>
   </si>
   <si>
     <t>0.003+/-0.001</t>
   </si>
   <si>
-    <t>0.689+/-0.048</t>
-  </si>
-  <si>
-    <t>0.764+/-0.002</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
+    <t>0.561+/-0.054</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.763+/-0.002</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
   </si>
   <si>
     <t>0.726</t>
   </si>
   <si>
-    <t>0.992+/-0.002</t>
-  </si>
-  <si>
-    <t>0.525+/-0.117</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.148+/-0.007</t>
-  </si>
-  <si>
-    <t>0.03+/-0.012</t>
+    <t>0.991+/-0.004</t>
+  </si>
+  <si>
+    <t>0.557+/-0.103</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.146+/-0.008</t>
+  </si>
+  <si>
+    <t>0.03+/-0.011</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>4.039+/-0.087</t>
+  </si>
+  <si>
+    <t>0.733+/-0.001</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.684+/-0.015</t>
+  </si>
+  <si>
+    <t>0.417+/-0.123</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.065+/-0.006</t>
+  </si>
+  <si>
+    <t>0.037+/-0.011</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.805+/-0.016</t>
+  </si>
+  <si>
+    <t>0.763+/-0.001</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.934+/-0.008</t>
+  </si>
+  <si>
+    <t>0.438+/-0.054</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.155+/-0.007</t>
+  </si>
+  <si>
+    <t>0.066+/-0.013</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>2.919+/-0.073</t>
+  </si>
+  <si>
+    <t>0.728+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.944+/-0.029</t>
+  </si>
+  <si>
+    <t>0.467+/-0.357</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.019+/-0.002</t>
+  </si>
+  <si>
+    <t>0.007+/-0.006</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.526+/-0.022</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.735+/-0.001</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.993+/-0.003</t>
+  </si>
+  <si>
+    <t>0.517+/-0.089</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.142+/-0.005</t>
+  </si>
+  <si>
+    <t>0.03+/-0.007</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>3.989+/-0.078</t>
+  </si>
+  <si>
+    <t>0.704+/-0.001</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.714+/-0.029</t>
+  </si>
+  <si>
+    <t>0.452+/-0.069</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.069+/-0.005</t>
+  </si>
+  <si>
+    <t>0.044+/-0.008</t>
   </si>
   <si>
     <t>0.033</t>
   </si>
   <si>
-    <t>4.936+/-0.092</t>
-  </si>
-  <si>
-    <t>0.733+/-0.001</t>
-  </si>
-  <si>
-    <t>0.72+/-0.0</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.686+/-0.017</t>
-  </si>
-  <si>
-    <t>0.449+/-0.101</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.066+/-0.005</t>
-  </si>
-  <si>
-    <t>0.042+/-0.011</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>0.991+/-0.011</t>
-  </si>
-  <si>
-    <t>0.763+/-0.002</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.924+/-0.013</t>
-  </si>
-  <si>
-    <t>0.428+/-0.081</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.157+/-0.007</t>
-  </si>
-  <si>
-    <t>0.061+/-0.016</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>3.296+/-0.064</t>
-  </si>
-  <si>
-    <t>0.728+/-0.001</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.961+/-0.024</t>
-  </si>
-  <si>
-    <t>0.403+/-0.312</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.019+/-0.002</t>
-  </si>
-  <si>
-    <t>0.006+/-0.005</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.701+/-0.02</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.993+/-0.004</t>
-  </si>
-  <si>
-    <t>0.534+/-0.104</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.141+/-0.007</t>
-  </si>
-  <si>
-    <t>0.03+/-0.009</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>4.975+/-0.183</t>
-  </si>
-  <si>
-    <t>0.704+/-0.001</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.714+/-0.029</t>
-  </si>
-  <si>
-    <t>0.452+/-0.069</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.069+/-0.005</t>
-  </si>
-  <si>
-    <t>0.044+/-0.008</t>
-  </si>
-  <si>
-    <t>1.032+/-0.035</t>
+    <t>0.807+/-0.015</t>
   </si>
   <si>
     <t>0.739+/-0.001</t>
@@ -466,7 +475,7 @@
     <t>0.927+/-0.012</t>
   </si>
   <si>
-    <t>0.487+/-0.05</t>
+    <t>0.49+/-0.053</t>
   </si>
   <si>
     <t>0.403</t>
@@ -481,37 +490,25 @@
     <t>0.054</t>
   </si>
   <si>
-    <t>3.391+/-0.059</t>
+    <t>2.96+/-0.053</t>
   </si>
   <si>
     <t>0.698+/-0.001</t>
   </si>
   <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.961+/-0.032</t>
-  </si>
-  <si>
-    <t>0.42+/-0.329</t>
-  </si>
-  <si>
-    <t>0.333</t>
+    <t>0.961+/-0.037</t>
+  </si>
+  <si>
+    <t>0.475+/-0.367</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.021+/-0.003</t>
   </si>
   <si>
-    <t>0.007+/-0.007</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.715+/-0.018</t>
+    <t>0.535+/-0.016</t>
   </si>
 </sst>
 </file>
@@ -900,16 +897,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.7986820871436255</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -917,19 +914,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.7986820871436255</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -937,19 +934,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -957,19 +954,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -977,19 +974,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -997,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1017,19 +1014,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1037,19 +1034,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1057,19 +1054,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1077,19 +1074,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1130,16 +1127,16 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2">
-        <v>0.8500537923614847</v>
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1147,19 +1144,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>0.8500537923614847</v>
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1167,19 +1164,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1187,19 +1184,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1207,19 +1204,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1227,19 +1224,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1247,19 +1244,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1267,19 +1264,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1287,19 +1284,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1307,19 +1304,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1357,19 +1354,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2">
-        <v>0.7231038192576654</v>
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1377,19 +1374,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3">
-        <v>0.7231038192576654</v>
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1397,19 +1394,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
         <v>118</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1417,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
         <v>119</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1437,19 +1434,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
         <v>120</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1457,19 +1454,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
         <v>121</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1477,19 +1474,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
         <v>122</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1497,19 +1494,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1517,19 +1514,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
         <v>124</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1537,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
         <v>125</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1590,16 +1587,16 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2">
-        <v>0.6919042495965573</v>
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1607,19 +1604,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3">
-        <v>0.6919042495965573</v>
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1627,19 +1624,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1647,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1667,19 +1664,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1687,19 +1684,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1707,19 +1704,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1727,19 +1724,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1747,19 +1744,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1767,19 +1764,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_10_1_replicas.xlsx
@@ -76,64 +76,61 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.814+/-0.001</t>
-  </si>
-  <si>
-    <t>0.803+/-0.0</t>
+    <t>0.814+/-0.002</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
   </si>
   <si>
     <t>0.799</t>
   </si>
   <si>
-    <t>0.965+/-0.007</t>
-  </si>
-  <si>
-    <t>0.758+/-0.151</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.078+/-0.006</t>
-  </si>
-  <si>
-    <t>0.029+/-0.01</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>3.901+/-0.12</t>
-  </si>
-  <si>
-    <t>0.802+/-0.001</t>
+    <t>0.967+/-0.008</t>
+  </si>
+  <si>
+    <t>0.74+/-0.154</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.077+/-0.008</t>
+  </si>
+  <si>
+    <t>0.027+/-0.009</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>5.332+/-0.396</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
   </si>
   <si>
     <t>0.797+/-0.0</t>
   </si>
   <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.67+/-0.057</t>
-  </si>
-  <si>
-    <t>0.418+/-0.271</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.031+/-0.006</t>
-  </si>
-  <si>
-    <t>0.019+/-0.012</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.785+/-0.101</t>
+    <t>0.646+/-0.037</t>
+  </si>
+  <si>
+    <t>0.423+/-0.203</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.031+/-0.004</t>
+  </si>
+  <si>
+    <t>0.02+/-0.011</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>1.033+/-0.03</t>
   </si>
   <si>
     <t>0.818+/-0.001</t>
@@ -142,28 +139,22 @@
     <t>0.798+/-0.0</t>
   </si>
   <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.961+/-0.008</t>
-  </si>
-  <si>
-    <t>0.501+/-0.166</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.103+/-0.007</t>
-  </si>
-  <si>
-    <t>0.033+/-0.011</t>
-  </si>
-  <si>
-    <t>2.909+/-0.204</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
+    <t>0.961+/-0.012</t>
+  </si>
+  <si>
+    <t>0.478+/-0.134</t>
+  </si>
+  <si>
+    <t>0.1+/-0.007</t>
+  </si>
+  <si>
+    <t>0.037+/-0.012</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>3.563+/-0.096</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
@@ -172,13 +163,13 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
-    <t>0.005+/-0.002</t>
+    <t>0.004+/-0.0</t>
   </si>
   <si>
     <t>0.001+/-0.002</t>
   </si>
   <si>
-    <t>0.524+/-0.027</t>
+    <t>0.735+/-0.055</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -193,88 +184,91 @@
     <t>0.851+/-0.0</t>
   </si>
   <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.968+/-0.007</t>
-  </si>
-  <si>
-    <t>0.515+/-0.336</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.055+/-0.004</t>
-  </si>
-  <si>
-    <t>0.014+/-0.009</t>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.968+/-0.009</t>
+  </si>
+  <si>
+    <t>0.533+/-0.364</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.058+/-0.004</t>
+  </si>
+  <si>
+    <t>0.013+/-0.008</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>5.292+/-0.138</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.746+/-0.059</t>
+  </si>
+  <si>
+    <t>0.428+/-0.344</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.019+/-0.002</t>
+  </si>
+  <si>
+    <t>0.009+/-0.006</t>
   </si>
   <si>
     <t>0.007</t>
   </si>
   <si>
-    <t>4.168+/-0.051</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.738+/-0.055</t>
-  </si>
-  <si>
-    <t>0.395+/-0.367</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.018+/-0.002</t>
-  </si>
-  <si>
-    <t>0.008+/-0.006</t>
-  </si>
-  <si>
-    <t>0.742+/-0.02</t>
+    <t>1.084+/-0.108</t>
   </si>
   <si>
     <t>0.863+/-0.001</t>
   </si>
   <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.987+/-0.007</t>
-  </si>
-  <si>
-    <t>0.404+/-0.161</t>
-  </si>
-  <si>
-    <t>0.167</t>
-  </si>
-  <si>
-    <t>0.088+/-0.004</t>
-  </si>
-  <si>
-    <t>0.022+/-0.011</t>
-  </si>
-  <si>
-    <t>2.858+/-0.088</t>
+    <t>0.847+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.988+/-0.006</t>
+  </si>
+  <si>
+    <t>0.318+/-0.142</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.089+/-0.006</t>
+  </si>
+  <si>
+    <t>0.016+/-0.01</t>
+  </si>
+  <si>
+    <t>3.471+/-0.141</t>
   </si>
   <si>
     <t>0.003+/-0.001</t>
   </si>
   <si>
-    <t>0.561+/-0.054</t>
+    <t>0.834+/-0.037</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -283,34 +277,34 @@
     <t>0.723</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.763+/-0.002</t>
   </si>
   <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.991+/-0.004</t>
-  </si>
-  <si>
-    <t>0.557+/-0.103</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.146+/-0.008</t>
-  </si>
-  <si>
-    <t>0.03+/-0.011</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>4.039+/-0.087</t>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.992+/-0.003</t>
+  </si>
+  <si>
+    <t>0.529+/-0.127</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.146+/-0.009</t>
+  </si>
+  <si>
+    <t>0.03+/-0.012</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>5.459+/-0.694</t>
   </si>
   <si>
     <t>0.733+/-0.001</t>
@@ -340,61 +334,61 @@
     <t>0.043</t>
   </si>
   <si>
-    <t>0.805+/-0.016</t>
+    <t>1.044+/-0.08</t>
   </si>
   <si>
     <t>0.763+/-0.001</t>
   </si>
   <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
     <t>0.718</t>
   </si>
   <si>
-    <t>0.934+/-0.008</t>
-  </si>
-  <si>
-    <t>0.438+/-0.054</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.155+/-0.007</t>
-  </si>
-  <si>
-    <t>0.066+/-0.013</t>
+    <t>0.934+/-0.009</t>
+  </si>
+  <si>
+    <t>0.437+/-0.054</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.155+/-0.006</t>
+  </si>
+  <si>
+    <t>0.065+/-0.013</t>
   </si>
   <si>
     <t>0.056</t>
   </si>
   <si>
-    <t>2.919+/-0.073</t>
+    <t>3.486+/-0.09</t>
   </si>
   <si>
     <t>0.728+/-0.001</t>
   </si>
   <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.944+/-0.029</t>
-  </si>
-  <si>
-    <t>0.467+/-0.357</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.019+/-0.002</t>
-  </si>
-  <si>
-    <t>0.007+/-0.006</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.526+/-0.022</t>
+    <t>0.947+/-0.029</t>
+  </si>
+  <si>
+    <t>0.429+/-0.293</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.02+/-0.002</t>
+  </si>
+  <si>
+    <t>0.006+/-0.005</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.86+/-0.033</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -403,34 +397,34 @@
     <t>0.692</t>
   </si>
   <si>
-    <t>0.735+/-0.001</t>
+    <t>0.735+/-0.002</t>
   </si>
   <si>
     <t>0.693+/-0.0</t>
   </si>
   <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.993+/-0.003</t>
-  </si>
-  <si>
-    <t>0.517+/-0.089</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.142+/-0.005</t>
-  </si>
-  <si>
-    <t>0.03+/-0.007</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>3.989+/-0.078</t>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.993+/-0.004</t>
+  </si>
+  <si>
+    <t>0.541+/-0.144</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.14+/-0.006</t>
+  </si>
+  <si>
+    <t>0.028+/-0.008</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>5.596+/-0.261</t>
   </si>
   <si>
     <t>0.704+/-0.001</t>
@@ -442,73 +436,79 @@
     <t>0.686</t>
   </si>
   <si>
-    <t>0.714+/-0.029</t>
-  </si>
-  <si>
-    <t>0.452+/-0.069</t>
+    <t>0.715+/-0.03</t>
+  </si>
+  <si>
+    <t>0.449+/-0.102</t>
   </si>
   <si>
     <t>0.388</t>
   </si>
   <si>
-    <t>0.069+/-0.005</t>
-  </si>
-  <si>
-    <t>0.044+/-0.008</t>
+    <t>0.068+/-0.007</t>
+  </si>
+  <si>
+    <t>0.041+/-0.01</t>
   </si>
   <si>
     <t>0.033</t>
   </si>
   <si>
-    <t>0.807+/-0.015</t>
+    <t>1.159+/-0.024</t>
   </si>
   <si>
     <t>0.739+/-0.001</t>
   </si>
   <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
     <t>0.684</t>
   </si>
   <si>
-    <t>0.927+/-0.012</t>
-  </si>
-  <si>
-    <t>0.49+/-0.053</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>0.164+/-0.005</t>
-  </si>
-  <si>
-    <t>0.069+/-0.014</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>2.96+/-0.053</t>
+    <t>0.931+/-0.013</t>
+  </si>
+  <si>
+    <t>0.496+/-0.074</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.166+/-0.005</t>
+  </si>
+  <si>
+    <t>0.07+/-0.015</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>3.626+/-0.348</t>
   </si>
   <si>
     <t>0.698+/-0.001</t>
   </si>
   <si>
-    <t>0.961+/-0.037</t>
-  </si>
-  <si>
-    <t>0.475+/-0.367</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.021+/-0.003</t>
-  </si>
-  <si>
-    <t>0.535+/-0.016</t>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.962+/-0.026</t>
+  </si>
+  <si>
+    <t>0.392+/-0.384</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.02+/-0.003</t>
+  </si>
+  <si>
+    <t>0.006+/-0.006</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.676+/-0.022</t>
   </si>
 </sst>
 </file>
@@ -903,10 +903,10 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -923,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -940,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -960,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -980,13 +980,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1000,10 +1000,10 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1020,13 +1020,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1060,10 +1060,10 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1080,13 +1080,13 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1124,19 +1124,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1144,19 +1144,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1164,19 +1164,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1187,16 +1187,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1207,13 +1207,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1227,13 +1227,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1247,16 +1247,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1267,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1287,13 +1287,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1307,16 +1307,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1354,19 +1354,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1417,16 +1417,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1437,16 +1437,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1457,16 +1457,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1477,16 +1477,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1497,16 +1497,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1517,16 +1517,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1584,19 +1584,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1604,19 +1604,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1624,19 +1624,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1647,16 +1647,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1667,16 +1667,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1687,16 +1687,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1707,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1727,16 +1727,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1747,16 +1747,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1767,13 +1767,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>163</v>
